--- a/Capstone.xlsx
+++ b/Capstone.xlsx
@@ -8,136 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/Code/SavvyCoders/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062CFC95-19A3-F147-9AAA-E05775611A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42DF3F-2F4E-654B-92D7-78771854A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33220" yWindow="500" windowWidth="17940" windowHeight="26740" activeTab="1" xr2:uid="{F5EE3F08-4368-9548-A2FA-5502D7415F2B}"/>
+    <workbookView xWindow="33300" yWindow="500" windowWidth="17860" windowHeight="26740" xr2:uid="{F5EE3F08-4368-9548-A2FA-5502D7415F2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="MC" sheetId="25" r:id="rId1"/>
+    <sheet name="MC2" sheetId="27" r:id="rId1"/>
     <sheet name="MC1" sheetId="26" r:id="rId2"/>
-    <sheet name="All" sheetId="10" r:id="rId3"/>
-    <sheet name="Most Common" sheetId="23" r:id="rId4"/>
-    <sheet name="Physical" sheetId="24" r:id="rId5"/>
-    <sheet name="15-24" sheetId="17" r:id="rId6"/>
-    <sheet name="25-34" sheetId="18" r:id="rId7"/>
-    <sheet name="35-44" sheetId="19" r:id="rId8"/>
-    <sheet name="45-54" sheetId="20" r:id="rId9"/>
-    <sheet name="55-64" sheetId="21" r:id="rId10"/>
-    <sheet name="65+" sheetId="22" r:id="rId11"/>
+    <sheet name="MC" sheetId="25" r:id="rId3"/>
+    <sheet name="All" sheetId="10" r:id="rId4"/>
+    <sheet name="Most Common" sheetId="23" r:id="rId5"/>
+    <sheet name="Physical" sheetId="24" r:id="rId6"/>
+    <sheet name="15-24" sheetId="17" r:id="rId7"/>
+    <sheet name="25-34" sheetId="18" r:id="rId8"/>
+    <sheet name="35-44" sheetId="19" r:id="rId9"/>
+    <sheet name="45-54" sheetId="20" r:id="rId10"/>
+    <sheet name="55-64" sheetId="21" r:id="rId11"/>
+    <sheet name="65+" sheetId="22" r:id="rId12"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'MC1'!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'MC1'!$A$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'MC1'!$A$30</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">'MC1'!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">'MC1'!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">'MC1'!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">'MC1'!$B$7:$H$7</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">'MC1'!$B$8:$H$8</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">'MC1'!$B$9:$H$9</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">'MC1'!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">'MC1'!$H$2:$H$37</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'MC1'!$A$32</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'MC1'!$A$34</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'MC1'!$A$36</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'MC1'!$A$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'MC1'!$A$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'MC1'!$A$8</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'MC1'!$B$10:$H$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'MC1'!$B$11:$H$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'MC1'!$B$12:$H$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'MC1'!$A$14</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'MC1'!$B$13:$H$13</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'MC1'!$B$14:$H$14</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'MC1'!$B$15:$H$15</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'MC1'!$B$16:$H$16</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'MC1'!$B$17:$H$17</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'MC1'!$B$18:$H$18</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'MC1'!$B$19:$H$19</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'MC1'!$B$1:$H$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'MC1'!$B$20:$H$20</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'MC1'!$B$21:$H$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'MC1'!$A$16</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'MC1'!$B$22:$H$22</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'MC1'!$B$23:$H$23</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'MC1'!$B$24:$H$24</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'MC1'!$B$25:$H$25</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'MC1'!$B$26:$H$26</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'MC1'!$B$27:$H$27</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'MC1'!$B$28:$H$28</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'MC1'!$B$29:$H$29</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'MC1'!$B$30:$H$30</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'MC1'!$B$31:$H$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'MC1'!$A$18</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'MC1'!$B$32:$H$32</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'MC1'!$B$33:$H$33</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'MC1'!$B$34:$H$34</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'MC1'!$B$35:$H$35</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'MC1'!$B$36:$H$36</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'MC1'!$B$37:$H$37</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'MC1'!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'MC1'!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'MC1'!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'MC1'!$B$7:$H$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'MC1'!$A$20</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'MC1'!$B$8:$H$8</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'MC1'!$B$9:$H$9</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'MC1'!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'MC1'!$H$2:$H$37</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'MC1'!$A$10</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'MC1'!$A$12</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'MC1'!$A$14</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'MC1'!$A$16</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'MC1'!$A$18</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'MC1'!$A$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'MC1'!$A$22</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'MC1'!$A$22</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'MC1'!$A$24</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'MC1'!$A$26</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'MC1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'MC1'!$A$30</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'MC1'!$A$32</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'MC1'!$A$34</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'MC1'!$A$36</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'MC1'!$A$4</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'MC1'!$A$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'MC1'!$A$24</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'MC1'!$A$8</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'MC1'!$B$10:$H$10</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'MC1'!$B$11:$H$11</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'MC1'!$B$12:$H$12</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'MC1'!$B$13:$H$13</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'MC1'!$B$14:$H$14</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'MC1'!$B$15:$H$15</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'MC1'!$B$16:$H$16</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">'MC1'!$B$17:$H$17</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'MC1'!$B$18:$H$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'MC1'!$A$26</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'MC1'!$B$19:$H$19</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'MC1'!$B$1:$H$1</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'MC1'!$B$20:$H$20</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'MC1'!$B$21:$H$21</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">'MC1'!$B$22:$H$22</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">'MC1'!$B$23:$H$23</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">'MC1'!$B$24:$H$24</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">'MC1'!$B$25:$H$25</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">'MC1'!$B$26:$H$26</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">'MC1'!$B$27:$H$27</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'MC1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">'MC1'!$B$28:$H$28</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">'MC1'!$B$29:$H$29</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">'MC1'!$B$30:$H$30</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">'MC1'!$B$31:$H$31</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">'MC1'!$B$32:$H$32</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">'MC1'!$B$33:$H$33</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">'MC1'!$B$34:$H$34</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">'MC1'!$B$35:$H$35</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">'MC1'!$B$36:$H$36</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">'MC1'!$B$37:$H$37</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -159,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="129">
   <si>
     <t>Age Group</t>
   </si>
@@ -439,6 +330,114 @@
   <si>
     <t>Sum of Change</t>
   </si>
+  <si>
+    <t>ATM/KIOSK 15-24</t>
+  </si>
+  <si>
+    <t>ATM/KIOSK 25-34</t>
+  </si>
+  <si>
+    <t>ATM/KIOSK 35-44</t>
+  </si>
+  <si>
+    <t>ATM/KIOSK 45-54</t>
+  </si>
+  <si>
+    <t>ATM/KIOSK 55-64</t>
+  </si>
+  <si>
+    <t>ATM/KIOSK 65+</t>
+  </si>
+  <si>
+    <t>Bank Teller 15-24</t>
+  </si>
+  <si>
+    <t>Bank Teller 25-34</t>
+  </si>
+  <si>
+    <t>Bank Teller 35-44</t>
+  </si>
+  <si>
+    <t>Bank Teller 45-54</t>
+  </si>
+  <si>
+    <t>Bank Teller 55-64</t>
+  </si>
+  <si>
+    <t>Bank Teller 65+</t>
+  </si>
+  <si>
+    <t>Mobile Banking 15-24</t>
+  </si>
+  <si>
+    <t>Mobile Banking 25-34</t>
+  </si>
+  <si>
+    <t>Mobile Banking 35-44</t>
+  </si>
+  <si>
+    <t>Mobile Banking 45-54</t>
+  </si>
+  <si>
+    <t>Mobile Banking 55-64</t>
+  </si>
+  <si>
+    <t>Mobile Banking 65+</t>
+  </si>
+  <si>
+    <t>Online Banking 15-24</t>
+  </si>
+  <si>
+    <t>Online Banking 25-34</t>
+  </si>
+  <si>
+    <t>Online Banking 35-44</t>
+  </si>
+  <si>
+    <t>Online Banking 45-54</t>
+  </si>
+  <si>
+    <t>Online Banking 55-64</t>
+  </si>
+  <si>
+    <t>Online Banking 65+</t>
+  </si>
+  <si>
+    <t>Other 15-24</t>
+  </si>
+  <si>
+    <t>Other 25-34</t>
+  </si>
+  <si>
+    <t>Other 35-44</t>
+  </si>
+  <si>
+    <t>Other 45-54</t>
+  </si>
+  <si>
+    <t>Other 55-64</t>
+  </si>
+  <si>
+    <t>Other 65+</t>
+  </si>
+  <si>
+    <t>Telephone Banking 15-24</t>
+  </si>
+  <si>
+    <t>Telephone Banking 25-34</t>
+  </si>
+  <si>
+    <t>Telephone Banking 35-44</t>
+  </si>
+  <si>
+    <t>Telephone Banking 45-54</t>
+  </si>
+  <si>
+    <t>Telephone Banking 55-64</t>
+  </si>
+  <si>
+    <t>Telephone Banking 65+</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -638,18 +637,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -665,1059 +652,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="114">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2800,6 +1760,726 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2851,6 +2531,328 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -20465,7 +20467,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27030CC4-AB7A-084B-9373-FED23B618BD2}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27030CC4-AB7A-084B-9373-FED23B618BD2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A40:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -20671,73 +20673,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{58727677-AAAD-C24A-A99D-855C051DE205}" name="Table79" displayName="Table79" ref="A1:AU6" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
-  <autoFilter ref="A1:AU6" xr:uid="{58727677-AAAD-C24A-A99D-855C051DE205}"/>
-  <tableColumns count="47">
-    <tableColumn id="1" xr3:uid="{91F3E11F-59A1-C040-87EF-91672C65345E}" name="15" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{947D0BE1-CE29-1244-BD3C-4F3B41F6BF35}" name="Bank Teller" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{6E575A20-878A-DC47-93C6-4492F8AFA538}" name="ATM/KIOSK" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{586553B4-EAD8-0F48-8E07-47396B7CE013}" name="Telephone Banking" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{C220F701-1687-204C-87B0-602C37DE15D4}" name="Online Banking" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{A27793B1-732E-A643-8D68-36FA6E465464}" name="Mobile Banking" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{05C4DF8C-61A6-1446-87DF-566CBADF1D93}" name="Other" dataDxfId="105"/>
-    <tableColumn id="44" xr3:uid="{924BF2D6-6E35-0A40-A6EF-31ACA59F193B}" name="Column1" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{46A58C26-5F4F-C24D-A99F-2B1CA73EEA8A}" name="25" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{139761AA-3A72-3C4B-B1A3-06B96B7BA25D}" name="Bank Teller2" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{8F9A682B-7DCA-D140-9E8A-CB3E356E316E}" name="ATM/KIOSK2" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{BA2B5317-6E8D-C641-B9C1-9869FC230422}" name="Telephone Banking2" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{326C0305-C8D9-AB4D-AE8D-68C626B4036A}" name="Online Banking2" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{92411005-A7A3-0244-8092-917CDD08B5EC}" name="Mobile Banking2" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{07257412-6295-2D4A-9BC0-9C0FA962F1C5}" name="Other2" dataDxfId="44"/>
-    <tableColumn id="45" xr3:uid="{EC4EBCA5-AEF8-AC41-9081-40F5CA2D8A1F}" name="Other22" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{B9045024-4040-014D-994F-C9CD73CAD8B4}" name="35" dataDxfId="43"/>
-    <tableColumn id="17" xr3:uid="{8235D93C-F4F1-6949-BEDD-11A82A41D5EF}" name="Bank Teller3" dataDxfId="42"/>
-    <tableColumn id="18" xr3:uid="{64B351CA-4876-5741-B5C0-39D25D16DFC4}" name="ATM/KIOSK3" dataDxfId="41"/>
-    <tableColumn id="19" xr3:uid="{2930145F-4C23-744C-9528-ABB08CBCA572}" name="Telephone Banking3" dataDxfId="40"/>
-    <tableColumn id="20" xr3:uid="{BE366820-6FCA-6543-8FD4-CE48CCA45719}" name="Online Banking3" dataDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{5853B5BE-5FE8-CE4A-9231-86DD85554FC2}" name="Mobile Banking3" dataDxfId="38"/>
-    <tableColumn id="22" xr3:uid="{D643CE35-0117-2448-B573-E36AB8BE428F}" name="Other3" dataDxfId="37"/>
-    <tableColumn id="46" xr3:uid="{0E78A8E6-D0D7-1E47-969D-F3320455A912}" name="Other32" dataDxfId="13"/>
-    <tableColumn id="23" xr3:uid="{05BED087-F0D2-D04F-AF4C-F90CC5C70D5C}" name="45" dataDxfId="36"/>
-    <tableColumn id="24" xr3:uid="{620458AB-248F-F045-874B-8A71CDE24547}" name="Bank Teller4" dataDxfId="35"/>
-    <tableColumn id="25" xr3:uid="{355439A9-1713-E141-B4C8-88EB2A1EC4B5}" name="ATM/KIOSK4" dataDxfId="34"/>
-    <tableColumn id="26" xr3:uid="{26572E3E-6882-984E-87DF-529D4E0F7BB5}" name="Telephone Banking4" dataDxfId="33"/>
-    <tableColumn id="27" xr3:uid="{007A26C4-28A5-5144-9337-ED9DCA43C96A}" name="Online Banking4" dataDxfId="32"/>
-    <tableColumn id="28" xr3:uid="{31BD42E9-1B10-3242-A38C-7F146BE16279}" name="Mobile Banking4" dataDxfId="31"/>
-    <tableColumn id="29" xr3:uid="{CD7AFD97-3144-C540-A6F8-68BB3E809B3F}" name="Other4" dataDxfId="30"/>
-    <tableColumn id="47" xr3:uid="{52337B30-E5A2-0045-A2F7-89D92206CF9F}" name="Other42" dataDxfId="12"/>
-    <tableColumn id="30" xr3:uid="{F6835F5F-DE24-B84F-B125-83A83BC56661}" name="55" dataDxfId="29"/>
-    <tableColumn id="31" xr3:uid="{27510B97-8BE8-CB44-9D3D-A00EC53F7DD4}" name="Bank Teller5" dataDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{0B958C75-6028-D24A-A410-4DEED1B53CB8}" name="ATM/KIOSK5" dataDxfId="27"/>
-    <tableColumn id="33" xr3:uid="{C32476EF-A5AC-8546-85EA-FE1480287772}" name="Telephone Banking5" dataDxfId="26"/>
-    <tableColumn id="34" xr3:uid="{D38812A4-C013-5343-A7F8-A978D8F379A7}" name="Online Banking5" dataDxfId="25"/>
-    <tableColumn id="35" xr3:uid="{4B4925A6-6D13-BF49-8A21-3A73D862018E}" name="Mobile Banking5" dataDxfId="24"/>
-    <tableColumn id="36" xr3:uid="{D6773C1B-711A-5444-8289-EDA80BED3B29}" name="Other5" dataDxfId="23"/>
-    <tableColumn id="48" xr3:uid="{DB83EA8A-E014-3540-B895-F110A1F671B5}" name="Other52" dataDxfId="11"/>
-    <tableColumn id="37" xr3:uid="{74A38E3A-962B-BD4F-B86D-0CF8A83A4269}" name="65" dataDxfId="22"/>
-    <tableColumn id="38" xr3:uid="{1DFF7EC8-1EAB-1146-83C4-1858AD92660F}" name="Bank Teller6" dataDxfId="21"/>
-    <tableColumn id="39" xr3:uid="{70DDB2D7-D1A5-0746-8A40-98B10EE210EA}" name="ATM/KIOSK6" dataDxfId="20"/>
-    <tableColumn id="40" xr3:uid="{65587EAA-3089-5E41-9060-877C26F25AF1}" name="Telephone Banking6" dataDxfId="19"/>
-    <tableColumn id="41" xr3:uid="{1DD308B8-D92A-8544-9942-4BF6F374A853}" name="Online Banking6" dataDxfId="18"/>
-    <tableColumn id="42" xr3:uid="{0EF4B9F6-B7F7-644F-8CAE-094540F01B3C}" name="Mobile Banking6" dataDxfId="17"/>
-    <tableColumn id="43" xr3:uid="{16729D7E-CF98-AB49-A2A3-22E6C6D85852}" name="Other6" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F1AC6D6-26B3-6F4B-A01E-DBB37A2C737C}" name="Table1" displayName="Table1" ref="A1:H37" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F1AC6D6-26B3-6F4B-A01E-DBB37A2C737C}" name="Table1" displayName="Table1" ref="A1:H37" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112" tableBorderDxfId="111">
   <autoFilter ref="A1:H37" xr:uid="{7F1AC6D6-26B3-6F4B-A01E-DBB37A2C737C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{65510348-CA60-E047-A6FE-4BD4A71ECD1A}" name="Age Group" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CAF177F8-92A3-954F-A231-26F88412ABAF}" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{8BE3C68B-4E72-6C46-BB34-A9F46E1ECE8E}" name="2021" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E0102ECA-7803-E343-936B-B46F7A1F7794}" name="2019" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{C5EBA033-C427-E940-AB2A-37DC674D47BD}" name="2017" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{708CFF2D-A75B-B847-8C00-939AA8660ADC}" name="2015" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C661124F-5AE8-2740-A3DA-534C27F5705C}" name="2013" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{CAC1C403-F01A-1447-B9AC-5399FBEA6BFC}" name="Change" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{65510348-CA60-E047-A6FE-4BD4A71ECD1A}" name="Age Group" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{CAF177F8-92A3-954F-A231-26F88412ABAF}" name="Category" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{8BE3C68B-4E72-6C46-BB34-A9F46E1ECE8E}" name="2021" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{E0102ECA-7803-E343-936B-B46F7A1F7794}" name="2019" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{C5EBA033-C427-E940-AB2A-37DC674D47BD}" name="2017" dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{708CFF2D-A75B-B847-8C00-939AA8660ADC}" name="2015" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{C661124F-5AE8-2740-A3DA-534C27F5705C}" name="2013" dataDxfId="104"/>
+    <tableColumn id="8" xr3:uid="{CAC1C403-F01A-1447-B9AC-5399FBEA6BFC}" name="Change" dataDxfId="103">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20745,97 +20691,153 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{58727677-AAAD-C24A-A99D-855C051DE205}" name="Table79" displayName="Table79" ref="A1:AU6" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+  <autoFilter ref="A1:AU6" xr:uid="{58727677-AAAD-C24A-A99D-855C051DE205}"/>
+  <tableColumns count="47">
+    <tableColumn id="1" xr3:uid="{91F3E11F-59A1-C040-87EF-91672C65345E}" name="15" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{947D0BE1-CE29-1244-BD3C-4F3B41F6BF35}" name="Bank Teller" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{6E575A20-878A-DC47-93C6-4492F8AFA538}" name="ATM/KIOSK" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{586553B4-EAD8-0F48-8E07-47396B7CE013}" name="Telephone Banking" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{C220F701-1687-204C-87B0-602C37DE15D4}" name="Online Banking" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{A27793B1-732E-A643-8D68-36FA6E465464}" name="Mobile Banking" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{05C4DF8C-61A6-1446-87DF-566CBADF1D93}" name="Other" dataDxfId="94"/>
+    <tableColumn id="44" xr3:uid="{924BF2D6-6E35-0A40-A6EF-31ACA59F193B}" name="Column1" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{46A58C26-5F4F-C24D-A99F-2B1CA73EEA8A}" name="25" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{139761AA-3A72-3C4B-B1A3-06B96B7BA25D}" name="Bank Teller2" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{8F9A682B-7DCA-D140-9E8A-CB3E356E316E}" name="ATM/KIOSK2" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{BA2B5317-6E8D-C641-B9C1-9869FC230422}" name="Telephone Banking2" dataDxfId="89"/>
+    <tableColumn id="12" xr3:uid="{326C0305-C8D9-AB4D-AE8D-68C626B4036A}" name="Online Banking2" dataDxfId="88"/>
+    <tableColumn id="13" xr3:uid="{92411005-A7A3-0244-8092-917CDD08B5EC}" name="Mobile Banking2" dataDxfId="87"/>
+    <tableColumn id="14" xr3:uid="{07257412-6295-2D4A-9BC0-9C0FA962F1C5}" name="Other2" dataDxfId="86"/>
+    <tableColumn id="45" xr3:uid="{EC4EBCA5-AEF8-AC41-9081-40F5CA2D8A1F}" name="Other22" dataDxfId="85"/>
+    <tableColumn id="16" xr3:uid="{B9045024-4040-014D-994F-C9CD73CAD8B4}" name="35" dataDxfId="84"/>
+    <tableColumn id="17" xr3:uid="{8235D93C-F4F1-6949-BEDD-11A82A41D5EF}" name="Bank Teller3" dataDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{64B351CA-4876-5741-B5C0-39D25D16DFC4}" name="ATM/KIOSK3" dataDxfId="82"/>
+    <tableColumn id="19" xr3:uid="{2930145F-4C23-744C-9528-ABB08CBCA572}" name="Telephone Banking3" dataDxfId="81"/>
+    <tableColumn id="20" xr3:uid="{BE366820-6FCA-6543-8FD4-CE48CCA45719}" name="Online Banking3" dataDxfId="80"/>
+    <tableColumn id="21" xr3:uid="{5853B5BE-5FE8-CE4A-9231-86DD85554FC2}" name="Mobile Banking3" dataDxfId="79"/>
+    <tableColumn id="22" xr3:uid="{D643CE35-0117-2448-B573-E36AB8BE428F}" name="Other3" dataDxfId="78"/>
+    <tableColumn id="46" xr3:uid="{0E78A8E6-D0D7-1E47-969D-F3320455A912}" name="Other32" dataDxfId="77"/>
+    <tableColumn id="23" xr3:uid="{05BED087-F0D2-D04F-AF4C-F90CC5C70D5C}" name="45" dataDxfId="76"/>
+    <tableColumn id="24" xr3:uid="{620458AB-248F-F045-874B-8A71CDE24547}" name="Bank Teller4" dataDxfId="75"/>
+    <tableColumn id="25" xr3:uid="{355439A9-1713-E141-B4C8-88EB2A1EC4B5}" name="ATM/KIOSK4" dataDxfId="74"/>
+    <tableColumn id="26" xr3:uid="{26572E3E-6882-984E-87DF-529D4E0F7BB5}" name="Telephone Banking4" dataDxfId="73"/>
+    <tableColumn id="27" xr3:uid="{007A26C4-28A5-5144-9337-ED9DCA43C96A}" name="Online Banking4" dataDxfId="72"/>
+    <tableColumn id="28" xr3:uid="{31BD42E9-1B10-3242-A38C-7F146BE16279}" name="Mobile Banking4" dataDxfId="71"/>
+    <tableColumn id="29" xr3:uid="{CD7AFD97-3144-C540-A6F8-68BB3E809B3F}" name="Other4" dataDxfId="70"/>
+    <tableColumn id="47" xr3:uid="{52337B30-E5A2-0045-A2F7-89D92206CF9F}" name="Other42" dataDxfId="69"/>
+    <tableColumn id="30" xr3:uid="{F6835F5F-DE24-B84F-B125-83A83BC56661}" name="55" dataDxfId="68"/>
+    <tableColumn id="31" xr3:uid="{27510B97-8BE8-CB44-9D3D-A00EC53F7DD4}" name="Bank Teller5" dataDxfId="67"/>
+    <tableColumn id="32" xr3:uid="{0B958C75-6028-D24A-A410-4DEED1B53CB8}" name="ATM/KIOSK5" dataDxfId="66"/>
+    <tableColumn id="33" xr3:uid="{C32476EF-A5AC-8546-85EA-FE1480287772}" name="Telephone Banking5" dataDxfId="65"/>
+    <tableColumn id="34" xr3:uid="{D38812A4-C013-5343-A7F8-A978D8F379A7}" name="Online Banking5" dataDxfId="64"/>
+    <tableColumn id="35" xr3:uid="{4B4925A6-6D13-BF49-8A21-3A73D862018E}" name="Mobile Banking5" dataDxfId="63"/>
+    <tableColumn id="36" xr3:uid="{D6773C1B-711A-5444-8289-EDA80BED3B29}" name="Other5" dataDxfId="62"/>
+    <tableColumn id="48" xr3:uid="{DB83EA8A-E014-3540-B895-F110A1F671B5}" name="Other52" dataDxfId="61"/>
+    <tableColumn id="37" xr3:uid="{74A38E3A-962B-BD4F-B86D-0CF8A83A4269}" name="65" dataDxfId="60"/>
+    <tableColumn id="38" xr3:uid="{1DFF7EC8-1EAB-1146-83C4-1858AD92660F}" name="Bank Teller6" dataDxfId="59"/>
+    <tableColumn id="39" xr3:uid="{70DDB2D7-D1A5-0746-8A40-98B10EE210EA}" name="ATM/KIOSK6" dataDxfId="58"/>
+    <tableColumn id="40" xr3:uid="{65587EAA-3089-5E41-9060-877C26F25AF1}" name="Telephone Banking6" dataDxfId="57"/>
+    <tableColumn id="41" xr3:uid="{1DD308B8-D92A-8544-9942-4BF6F374A853}" name="Online Banking6" dataDxfId="56"/>
+    <tableColumn id="42" xr3:uid="{0EF4B9F6-B7F7-644F-8CAE-094540F01B3C}" name="Mobile Banking6" dataDxfId="55"/>
+    <tableColumn id="43" xr3:uid="{16729D7E-CF98-AB49-A2A3-22E6C6D85852}" name="Other6" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35BB3E2C-9B30-554E-A93E-F3FEE780FFA1}" name="Table2" displayName="Table2" ref="A2:G8" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35BB3E2C-9B30-554E-A93E-F3FEE780FFA1}" name="Table2" displayName="Table2" ref="A2:G8" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A2:G8" xr:uid="{35BB3E2C-9B30-554E-A93E-F3FEE780FFA1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{84E26487-A9FD-664A-BA78-BC10949E4BF1}" name="Age Group" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{4E78141B-EDE2-ED43-93BF-EBAD40D12463}" name="Bank Teller" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{50568BF2-A786-A149-9AA4-9F55061A0ABD}" name="ATM/KIOSK" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{D8C70589-95F4-B44F-903D-0B2746F92E2F}" name="Telephone Banking" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{7FEA727E-39B8-514D-BB84-8746BBB3794B}" name="Online Banking" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{F43A9CCF-97F5-D64B-87AA-E026CD91412E}" name="Mobile Banking" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{84ACA736-E542-A046-9A5C-151773C989B3}" name="Other" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{84E26487-A9FD-664A-BA78-BC10949E4BF1}" name="Age Group" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{4E78141B-EDE2-ED43-93BF-EBAD40D12463}" name="Bank Teller" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{50568BF2-A786-A149-9AA4-9F55061A0ABD}" name="ATM/KIOSK" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{D8C70589-95F4-B44F-903D-0B2746F92E2F}" name="Telephone Banking" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{7FEA727E-39B8-514D-BB84-8746BBB3794B}" name="Online Banking" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{F43A9CCF-97F5-D64B-87AA-E026CD91412E}" name="Mobile Banking" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{84ACA736-E542-A046-9A5C-151773C989B3}" name="Other" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{91068BDA-E40D-E849-801B-26A340BA7674}" name="Table3" displayName="Table3" ref="A11:G17" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{91068BDA-E40D-E849-801B-26A340BA7674}" name="Table3" displayName="Table3" ref="A11:G17" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A11:G17" xr:uid="{91068BDA-E40D-E849-801B-26A340BA7674}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{069F1697-76D0-A841-B41A-9C057DAEF8FA}" name="Age Group" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{84DE5498-3A97-CC4F-90E7-E3A5785F2CE6}" name="Bank Teller" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{DAF13D5A-4C11-BA4E-8027-C4E98909F98B}" name="ATM/KIOSK" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{9E860CE5-02B3-9443-A865-96AC69DDBE51}" name="Telephone Banking" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{72663E2A-42D7-3644-A4B3-B1E4362683B9}" name="Online Banking" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{CECDBE47-BAB0-2143-AD62-49C8CD6A0BCF}" name="Mobile Banking" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{F8DACCA1-9769-CB4A-82A3-789643283C55}" name="Other" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{069F1697-76D0-A841-B41A-9C057DAEF8FA}" name="Age Group" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{84DE5498-3A97-CC4F-90E7-E3A5785F2CE6}" name="Bank Teller" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{DAF13D5A-4C11-BA4E-8027-C4E98909F98B}" name="ATM/KIOSK" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{9E860CE5-02B3-9443-A865-96AC69DDBE51}" name="Telephone Banking" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{72663E2A-42D7-3644-A4B3-B1E4362683B9}" name="Online Banking" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{CECDBE47-BAB0-2143-AD62-49C8CD6A0BCF}" name="Mobile Banking" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{F8DACCA1-9769-CB4A-82A3-789643283C55}" name="Other" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15539255-DAC2-FB43-AC27-ED788B0F8E9F}" name="Table4" displayName="Table4" ref="A20:G26" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{15539255-DAC2-FB43-AC27-ED788B0F8E9F}" name="Table4" displayName="Table4" ref="A20:G26" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A20:G26" xr:uid="{15539255-DAC2-FB43-AC27-ED788B0F8E9F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DAA870E8-016D-B94F-A543-566673C9D667}" name="Age Group" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{DF7582D9-471E-DC40-A400-BD59495A88AD}" name="Bank Teller" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{62BB948B-214D-6E4F-9AD7-A46ED55827E5}" name="ATM/KIOSK" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{FCF25E4F-0E99-9F40-8235-40E2F9CC7FC8}" name="Telephone Banking" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{988E68F4-76BB-AF49-A832-EBA607B1F80C}" name="Online Banking" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{265F4911-DE10-2C4F-9ABB-24107E94C31A}" name="Mobile Banking" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{5A146B33-6A0E-444B-950B-FA104824879B}" name="Other" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{DAA870E8-016D-B94F-A543-566673C9D667}" name="Age Group" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{DF7582D9-471E-DC40-A400-BD59495A88AD}" name="Bank Teller" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{62BB948B-214D-6E4F-9AD7-A46ED55827E5}" name="ATM/KIOSK" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{FCF25E4F-0E99-9F40-8235-40E2F9CC7FC8}" name="Telephone Banking" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{988E68F4-76BB-AF49-A832-EBA607B1F80C}" name="Online Banking" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{265F4911-DE10-2C4F-9ABB-24107E94C31A}" name="Mobile Banking" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{5A146B33-6A0E-444B-950B-FA104824879B}" name="Other" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FF1AF898-9A65-7B40-A06F-E68AFD1A7EB4}" name="Table5" displayName="Table5" ref="A29:G35" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FF1AF898-9A65-7B40-A06F-E68AFD1A7EB4}" name="Table5" displayName="Table5" ref="A29:G35" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A29:G35" xr:uid="{FF1AF898-9A65-7B40-A06F-E68AFD1A7EB4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1B1816F3-C576-8641-9EB1-D0821415F07F}" name="Age Group" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{BC64C84C-F7D4-C142-B67E-CD7B0DB723A5}" name="Bank Teller" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{9989B702-060A-164E-BA0E-24D20A210A36}" name="ATM/KIOSK" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{1FDAFE62-0A9C-8745-8838-D6FBD4081418}" name="Telephone Banking" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{CCD6E0EB-DB79-BF4B-BCA9-AC98C2FE1F2A}" name="Online Banking" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{364F802E-4C79-834B-AF35-A9AE934E11BE}" name="Mobile Banking" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{0757D3B3-0E98-8D48-A827-F9560C3A74B6}" name="Other" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{1B1816F3-C576-8641-9EB1-D0821415F07F}" name="Age Group" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{BC64C84C-F7D4-C142-B67E-CD7B0DB723A5}" name="Bank Teller" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9989B702-060A-164E-BA0E-24D20A210A36}" name="ATM/KIOSK" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{1FDAFE62-0A9C-8745-8838-D6FBD4081418}" name="Telephone Banking" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{CCD6E0EB-DB79-BF4B-BCA9-AC98C2FE1F2A}" name="Online Banking" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{364F802E-4C79-834B-AF35-A9AE934E11BE}" name="Mobile Banking" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{0757D3B3-0E98-8D48-A827-F9560C3A74B6}" name="Other" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B20983F-8472-324A-B597-6E78F8348DF3}" name="Table6" displayName="Table6" ref="A38:G44" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B20983F-8472-324A-B597-6E78F8348DF3}" name="Table6" displayName="Table6" ref="A38:G44" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A38:G44" xr:uid="{9B20983F-8472-324A-B597-6E78F8348DF3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B7A75B46-3003-B343-BD4F-1421CBEFF00D}" name="Age Group" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{89ACF4FE-FB26-5144-82BE-5B33CD62B38E}" name="Bank Teller" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{7B6F86B4-347D-674C-AD54-41F820962D15}" name="ATM/KIOSK" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{B4EF4D9C-EAB1-8F4D-913C-AD04ACBA6F38}" name="Telephone Banking" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{8BBC9C27-921C-B14F-98D0-F2872F71A172}" name="Online Banking" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{796E8376-F9D1-7341-9D50-A413003104A2}" name="Mobile Banking" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{7E0C50E0-35B9-414C-8ED3-AB0E5DAD8CE6}" name="Other" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{B7A75B46-3003-B343-BD4F-1421CBEFF00D}" name="Age Group" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{89ACF4FE-FB26-5144-82BE-5B33CD62B38E}" name="Bank Teller" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{7B6F86B4-347D-674C-AD54-41F820962D15}" name="ATM/KIOSK" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B4EF4D9C-EAB1-8F4D-913C-AD04ACBA6F38}" name="Telephone Banking" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{8BBC9C27-921C-B14F-98D0-F2872F71A172}" name="Online Banking" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{796E8376-F9D1-7341-9D50-A413003104A2}" name="Mobile Banking" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{7E0C50E0-35B9-414C-8ED3-AB0E5DAD8CE6}" name="Other" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CAB4CD75-176B-494B-B03C-F0B2CC22C2A7}" name="Table7" displayName="Table7" ref="A1:G6" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CAB4CD75-176B-494B-B03C-F0B2CC22C2A7}" name="Table7" displayName="Table7" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G6" xr:uid="{CAB4CD75-176B-494B-B03C-F0B2CC22C2A7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D284FACF-6A17-FD4B-BE91-6B182558AFBA}" name="Year" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{76576AA7-A7B5-BF41-A222-57D55C73D3AA}" name="Bank Teller" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{BB6F5E55-11A6-7C49-9F35-F3A72513EC4A}" name="ATM/KIOSK" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{CA9D607D-C8F0-A44E-AF88-45D1A6CB7C5C}" name="Telephone Banking" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{33016010-65AB-824B-BA78-6F9CE1E2E111}" name="Online Banking" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{52A9B2E7-EE7B-C94A-AFCE-30BB549E1257}" name="Mobile Banking" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{8E487020-72C0-3848-B9E0-EC1FFB0C1756}" name="Other" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{D284FACF-6A17-FD4B-BE91-6B182558AFBA}" name="Year" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{76576AA7-A7B5-BF41-A222-57D55C73D3AA}" name="Bank Teller" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{BB6F5E55-11A6-7C49-9F35-F3A72513EC4A}" name="ATM/KIOSK" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{CA9D607D-C8F0-A44E-AF88-45D1A6CB7C5C}" name="Telephone Banking" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{33016010-65AB-824B-BA78-6F9CE1E2E111}" name="Online Banking" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{52A9B2E7-EE7B-C94A-AFCE-30BB549E1257}" name="Mobile Banking" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8E487020-72C0-3848-B9E0-EC1FFB0C1756}" name="Other" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21137,1037 +21139,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FA297E-65B5-044B-81EC-2902810C0B6E}">
-  <dimension ref="A1:AU48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1426E6D-3D20-844A-BE8B-0E560AE54E05}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AU6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B2" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C2" s="7">
-        <v>14.4</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E2" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="F2" s="7">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="G2" s="7">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>-13.299999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>-11.600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>-1.3999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>-16.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>-12.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>-15.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>-17.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>-20.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>-26.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>54.399999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>56.600000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>31.900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20">
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21">
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22">
+        <v>-23.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>-15.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24">
+        <v>-4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25">
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28">
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>2021</v>
-      </c>
-      <c r="J2" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="K2" s="7">
-        <v>11.7</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="M2" s="7">
-        <v>12.9</v>
-      </c>
-      <c r="N2" s="7">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7">
-        <v>2021</v>
-      </c>
-      <c r="R2" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="S2" s="7">
-        <v>13.3</v>
-      </c>
-      <c r="T2" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="U2" s="7">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="V2" s="7">
-        <v>60.5</v>
-      </c>
-      <c r="W2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7">
-        <v>2021</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>9.9</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>22.8</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>49.1</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7">
-        <v>2021</v>
-      </c>
-      <c r="AH2" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="AI2" s="7">
-        <v>19.5</v>
-      </c>
-      <c r="AJ2" s="7">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="7">
-        <v>27.3</v>
-      </c>
-      <c r="AL2" s="7">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="AM2" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7">
-        <v>2021</v>
-      </c>
-      <c r="AP2" s="7">
-        <v>30.5</v>
-      </c>
-      <c r="AQ2" s="7">
-        <v>18.3</v>
-      </c>
-      <c r="AR2" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="AS2" s="7">
-        <v>28.2</v>
-      </c>
-      <c r="AT2" s="7">
-        <v>15.3</v>
-      </c>
-      <c r="AU2" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B3" s="7">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C3" s="7">
-        <v>17.3</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E3" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="F3" s="7">
-        <v>62.9</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <v>2019</v>
-      </c>
-      <c r="J3" s="7">
-        <v>8</v>
-      </c>
-      <c r="K3" s="7">
-        <v>15.1</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="M3" s="7">
-        <v>14.4</v>
-      </c>
-      <c r="N3" s="7">
-        <v>61.7</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7">
-        <v>2019</v>
-      </c>
-      <c r="R3" s="7">
-        <v>10.6</v>
-      </c>
-      <c r="S3" s="7">
-        <v>18.2</v>
-      </c>
-      <c r="T3" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U3" s="7">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="V3" s="7">
-        <v>49.8</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7">
-        <v>2019</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>15.5</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>26.6</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7">
-        <v>2019</v>
-      </c>
-      <c r="AH3" s="7">
-        <v>24.3</v>
-      </c>
-      <c r="AI3" s="7">
-        <v>21.9</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="AK3" s="7">
-        <v>29.3</v>
-      </c>
-      <c r="AL3" s="7">
-        <v>21.3</v>
-      </c>
-      <c r="AM3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7">
-        <v>2019</v>
-      </c>
-      <c r="AP3" s="7">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="AQ3" s="7">
-        <v>21.6</v>
-      </c>
-      <c r="AR3" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="AS3" s="7">
-        <v>25.7</v>
-      </c>
-      <c r="AT3" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AU3" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="7">
-        <v>13.2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>21.5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E4" s="7">
-        <v>27.6</v>
-      </c>
-      <c r="F4" s="7">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J4" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="K4" s="7">
-        <v>15.9</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="M4" s="7">
-        <v>37.6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>34.1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7">
-        <v>2017</v>
-      </c>
-      <c r="R4" s="7">
-        <v>13.9</v>
-      </c>
-      <c r="S4" s="7">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="T4" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="U4" s="7">
-        <v>43.7</v>
-      </c>
-      <c r="V4" s="7">
-        <v>22</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7">
-        <v>2017</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>18.7</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>21.7</v>
-      </c>
-      <c r="AB4" s="7">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30">
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32">
+        <v>-1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34">
+        <v>-1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36">
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37">
         <v>2.5</v>
       </c>
-      <c r="AC4" s="7">
-        <v>44</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>12.8</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7">
-        <v>2017</v>
-      </c>
-      <c r="AH4" s="7">
-        <v>26.2</v>
-      </c>
-      <c r="AI4" s="7">
-        <v>22.9</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>40.1</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>6.8</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7">
-        <v>2017</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>46.5</v>
-      </c>
-      <c r="AQ4" s="7">
-        <v>18.5</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="AS4" s="7">
-        <v>26.8</v>
-      </c>
-      <c r="AT4" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" s="7">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="7">
-        <v>15.7</v>
-      </c>
-      <c r="C5" s="7">
-        <v>24.1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>33.6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>24.1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>2015</v>
-      </c>
-      <c r="J5" s="7">
-        <v>14.1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>18.3</v>
-      </c>
-      <c r="L5" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>43.7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>21.5</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7">
-        <v>2015</v>
-      </c>
-      <c r="R5" s="7">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="S5" s="7">
-        <v>19.3</v>
-      </c>
-      <c r="T5" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="U5" s="7">
-        <v>47</v>
-      </c>
-      <c r="V5" s="7">
-        <v>13.9</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7">
-        <v>2015</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>23.2</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>23.2</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7">
-        <v>2015</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>31.8</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="AM5" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7">
-        <v>2015</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>50.6</v>
-      </c>
-      <c r="AQ5" s="7">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AR5" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="AS5" s="7">
-        <v>23.4</v>
-      </c>
-      <c r="AT5" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="AU5" s="7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="7">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7">
-        <v>27.7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="F6" s="7">
-        <v>19.7</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>2013</v>
-      </c>
-      <c r="J6" s="7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="K6" s="7">
-        <v>23.3</v>
-      </c>
-      <c r="L6" s="7">
-        <v>3</v>
-      </c>
-      <c r="M6" s="7">
-        <v>43.8</v>
-      </c>
-      <c r="N6" s="7">
-        <v>12.8</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7">
-        <v>2013</v>
-      </c>
-      <c r="R6" s="7">
-        <v>21.7</v>
-      </c>
-      <c r="S6" s="7">
-        <v>24.3</v>
-      </c>
-      <c r="T6" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="U6" s="7">
-        <v>42.3</v>
-      </c>
-      <c r="V6" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7">
-        <v>2013</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>27.6</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>27.1</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>38</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7">
-        <v>2013</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>37.1</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>32.1</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="AM6" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7">
-        <v>2013</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>56.8</v>
-      </c>
-      <c r="AQ6" s="7">
-        <v>19.7</v>
-      </c>
-      <c r="AR6" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="AS6" s="7">
-        <v>17.3</v>
-      </c>
-      <c r="AT6" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="AU6" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A43:C43"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3608B246-7649-B543-88A3-1F6AB50B749B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386405C0-D1C4-C949-8B67-4692CBDB08D2}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22177,19 +21463,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -22215,22 +21501,22 @@
         <v>2021</v>
       </c>
       <c r="B3" s="1">
-        <v>16.5</v>
+        <v>9.9</v>
       </c>
       <c r="C3" s="1">
-        <v>19.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="E3" s="1">
-        <v>27.3</v>
+        <v>22.8</v>
       </c>
       <c r="F3" s="1">
-        <v>33.200000000000003</v>
+        <v>49.1</v>
       </c>
       <c r="G3" s="1">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -22238,22 +21524,22 @@
         <v>2019</v>
       </c>
       <c r="B4" s="1">
-        <v>24.3</v>
+        <v>15.5</v>
       </c>
       <c r="C4" s="1">
-        <v>21.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="E4" s="1">
-        <v>29.3</v>
+        <v>26.6</v>
       </c>
       <c r="F4" s="1">
-        <v>21.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G4" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -22261,22 +21547,22 @@
         <v>2017</v>
       </c>
       <c r="B5" s="1">
-        <v>26.2</v>
+        <v>18.7</v>
       </c>
       <c r="C5" s="1">
-        <v>22.9</v>
+        <v>21.7</v>
       </c>
       <c r="D5" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="1">
-        <v>40.1</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1">
-        <v>6.8</v>
+        <v>12.8</v>
       </c>
       <c r="G5" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -22284,22 +21570,22 @@
         <v>2015</v>
       </c>
       <c r="B6" s="1">
-        <v>31.8</v>
+        <v>23.2</v>
       </c>
       <c r="C6" s="1">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="D6" s="1">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="E6" s="1">
-        <v>38.700000000000003</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1">
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="G6" s="1">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -22307,35 +21593,35 @@
         <v>2013</v>
       </c>
       <c r="B7" s="1">
-        <v>37.1</v>
+        <v>27.6</v>
       </c>
       <c r="C7" s="1">
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
       <c r="D7" s="1">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="E7" s="1">
-        <v>32.1</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="G7" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -22352,13 +21638,13 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="C12" s="1">
-        <v>82.3</v>
+        <v>86.5</v>
       </c>
       <c r="D12" s="1">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -22366,10 +21652,10 @@
         <v>2019</v>
       </c>
       <c r="B13" s="1">
-        <v>16</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C13" s="1">
-        <v>80.5</v>
+        <v>86.7</v>
       </c>
       <c r="D13" s="1">
         <v>3.5</v>
@@ -22380,13 +21666,13 @@
         <v>2017</v>
       </c>
       <c r="B14" s="1">
-        <v>28.8</v>
+        <v>20.7</v>
       </c>
       <c r="C14" s="1">
-        <v>63.3</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="D14" s="1">
-        <v>7.9</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -22394,13 +21680,13 @@
         <v>2015</v>
       </c>
       <c r="B15" s="1">
-        <v>31.4</v>
+        <v>25.2</v>
       </c>
       <c r="C15" s="1">
-        <v>61.4</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D15" s="1">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -22408,26 +21694,26 @@
         <v>2013</v>
       </c>
       <c r="B16" s="1">
-        <v>39.1</v>
+        <v>29.7</v>
       </c>
       <c r="C16" s="1">
-        <v>54.9</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
@@ -22444,13 +21730,13 @@
         <v>2021</v>
       </c>
       <c r="B21">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="C21">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="D21">
-        <v>81.900000000000006</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -22458,13 +21744,13 @@
         <v>2019</v>
       </c>
       <c r="B22">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C22">
-        <v>16.3</v>
+        <v>19.8</v>
       </c>
       <c r="D22">
-        <v>78.2</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -22472,13 +21758,13 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="C23">
-        <v>18.899999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="D23">
-        <v>75.099999999999994</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -22486,13 +21772,13 @@
         <v>2015</v>
       </c>
       <c r="B24">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="C24">
-        <v>19.399999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="D24">
-        <v>74.7</v>
+        <v>71.400000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -22500,25 +21786,25 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="C25">
-        <v>18.8</v>
+        <v>22.9</v>
       </c>
       <c r="D25">
-        <v>75.599999999999994</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
@@ -22532,10 +21818,10 @@
         <v>2021</v>
       </c>
       <c r="B29">
-        <v>70.3</v>
+        <v>72.3</v>
       </c>
       <c r="C29">
-        <v>29.7</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -22543,10 +21829,10 @@
         <v>2019</v>
       </c>
       <c r="B30">
-        <v>72.400000000000006</v>
+        <v>73</v>
       </c>
       <c r="C30">
-        <v>27.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -22554,10 +21840,10 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>69.400000000000006</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="C31">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -22565,10 +21851,10 @@
         <v>2015</v>
       </c>
       <c r="B32">
-        <v>68.900000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C32">
-        <v>31.1</v>
+        <v>32.9</v>
       </c>
     </row>
   </sheetData>
@@ -22583,6 +21869,422 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3608B246-7649-B543-88A3-1F6AB50B749B}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32.1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="1">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B21">
+        <v>4.8</v>
+      </c>
+      <c r="C21">
+        <v>13.4</v>
+      </c>
+      <c r="D21">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>5.5</v>
+      </c>
+      <c r="C22">
+        <v>16.3</v>
+      </c>
+      <c r="D22">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B23">
+        <v>5.9</v>
+      </c>
+      <c r="C23">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D23">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B24">
+        <v>5.8</v>
+      </c>
+      <c r="C24">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D24">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B25">
+        <v>5.6</v>
+      </c>
+      <c r="C25">
+        <v>18.8</v>
+      </c>
+      <c r="D25">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>70.3</v>
+      </c>
+      <c r="C29">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B30">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C30">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B31">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C31">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B32">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C32">
+        <v>31.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E3F97-1AB4-4549-8786-1968456A8CEB}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -22593,15 +22295,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -22742,12 +22444,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -22834,12 +22536,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -22926,11 +22628,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -23002,8 +22704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9C8E8-64C4-6448-8A26-43456A2ACCC9}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A38" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23013,1005 +22715,1005 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="13">
         <v>13.2</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="14">
         <v>15.7</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="13">
         <v>21</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-16.899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <v>14.4</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>17.3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>21.5</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>24.1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="13">
         <v>27.7</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-13.299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <v>2.9</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-1.7999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>6.3</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>7.2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>27.6</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <v>33.6</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>28.5</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-22.2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>74.099999999999994</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>62.9</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <v>35.299999999999997</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <v>24.1</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>19.7</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>54.399999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>0.1</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="13">
         <v>0.3</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <v>0.4</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>0.2</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <v>4.8</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>8</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>10.5</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <v>14.1</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>17.100000000000001</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-12.3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <v>11.7</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>15.1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>15.9</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="14">
         <v>18.3</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>23.3</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-11.600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>0.9</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>0.6</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>1.8</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="14">
         <v>2.1</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>3</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-2.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <v>12.9</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>14.4</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>37.6</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="14">
         <v>43.7</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <v>43.8</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-30.9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>69.400000000000006</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>61.7</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>34.1</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="14">
         <v>21.5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="13">
         <v>12.8</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>56.600000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <v>0.3</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="14">
         <v>0.2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="13">
         <v>0.1</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="14">
         <v>0.2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <v>0.1</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>6.3</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="14">
         <v>10.6</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>13.9</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="14">
         <v>16.899999999999999</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <v>21.7</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-15.399999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>13.3</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>18.2</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>17.399999999999999</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="14">
         <v>19.3</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="13">
         <v>24.3</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>1.3</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>2.8</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <v>2.7</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <v>2.9</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-1.5999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>18.399999999999999</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>20.100000000000001</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <v>43.7</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="14">
         <v>47</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="13">
         <v>42.3</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-23.9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <v>60.5</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <v>49.8</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>22</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="14">
         <v>13.9</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="13">
         <v>8.6</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>51.9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>0.2</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <v>0.2</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="13">
         <v>0.1</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="14">
         <v>0.2</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="13">
         <v>0.2</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <v>9.9</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="14">
         <v>15.5</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <v>18.7</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="14">
         <v>23.2</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <v>27.6</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-17.700000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>19.899999999999999</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <v>21.7</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="14">
         <v>23.2</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <v>27.1</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>1.8</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="14">
         <v>1.6</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>2.5</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="14">
         <v>2.9</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="13">
         <v>3.1</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-1.3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="13">
         <v>22.8</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <v>26.6</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <v>44</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="14">
         <v>43</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="13">
         <v>38</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-15.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <v>49.1</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="14">
         <v>36.299999999999997</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>12.8</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="14">
         <v>7.3</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="13">
         <v>3.6</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>45.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="13">
         <v>0.3</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="14">
         <v>0.1</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="13">
         <v>0.2</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="14">
         <v>0.4</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="13">
         <v>0.5</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="13">
         <v>16.5</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="14">
         <v>24.3</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <v>26.2</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="14">
         <v>31.8</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="13">
         <v>37.1</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-20.6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="13">
         <v>19.5</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="14">
         <v>21.9</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="13">
         <v>22.9</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="14">
         <v>22.2</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="13">
         <v>25.5</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="13">
         <v>3</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="14">
         <v>2.9</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <v>3.5</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="14">
         <v>3.3</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="13">
         <v>3.4</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="13">
         <v>27.3</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="14">
         <v>29.3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="13">
         <v>40.1</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="14">
         <v>38.700000000000003</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="13">
         <v>32.1</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-4.8000000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="13">
         <v>33.200000000000003</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="14">
         <v>21.3</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="13">
         <v>6.8</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="14">
         <v>3.3</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="13">
         <v>1.3</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>31.900000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="13">
         <v>0.6</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="14">
         <v>0.3</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="13">
         <v>0.4</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="14">
         <v>0.7</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="13">
         <v>0.7</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="13">
         <v>30.5</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="14">
         <v>39.200000000000003</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <v>46.5</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="14">
         <v>50.6</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="13">
         <v>56.8</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-26.299999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="13">
         <v>18.3</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="14">
         <v>21.6</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="13">
         <v>18.5</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="14">
         <v>18.899999999999999</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="13">
         <v>19.7</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-1.3999999999999986</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="13">
         <v>6.2</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="14">
         <v>4.5</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="13">
         <v>3.5</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="14">
         <v>3.5</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="13">
         <v>3.7</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="13">
         <v>28.2</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="14">
         <v>25.7</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="13">
         <v>26.8</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="14">
         <v>23.4</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="13">
         <v>17.3</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>10.899999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="13">
         <v>15.3</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="14">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="13">
         <v>2.5</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="14">
         <v>1.2</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="13">
         <v>0.6</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="19">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>14.700000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="15">
         <v>1.5</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="16">
         <v>0.7</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="15">
         <v>2.1</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="16">
         <v>2.4</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="15">
         <v>2</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="23">
         <f>SUM(Table1[[#This Row],[2021]]-Table1[[#This Row],[2013]])</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B40" t="s">
@@ -24019,346 +23721,346 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41">
         <v>-54.3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42">
         <v>-13.299999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43">
         <v>-11.600000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44">
         <v>-11</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45">
         <v>-11</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46">
         <v>-6</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47">
         <v>-1.3999999999999986</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48">
         <v>-109.2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49">
         <v>-16.899999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50">
         <v>-12.3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51">
         <v>-15.399999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52">
         <v>-17.700000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53">
         <v>-20.6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54">
         <v>-26.299999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55">
         <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56">
         <v>54.399999999999991</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57">
         <v>56.600000000000009</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58">
         <v>51.9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59">
         <v>45.5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60">
         <v>31.900000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61">
         <v>14.700000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62">
         <v>-86.1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63">
         <v>-22.2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64">
         <v>-30.9</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65">
         <v>-23.9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66">
         <v>-15.2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67">
         <v>-4.8000000000000007</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68">
         <v>10.899999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69">
         <v>-0.8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70">
         <v>-0.2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71">
         <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73">
         <v>-0.2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74">
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75">
         <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76">
         <v>-4.6999999999999993</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77">
         <v>-1.7999999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B78">
         <v>-2.1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="26">
+      <c r="B79">
         <v>-1.5999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B80">
         <v>-1.3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="26">
+      <c r="B81">
         <v>-0.39999999999999991</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B82">
         <v>2.5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="26">
+      <c r="B83">
         <v>-0.10000000000000098</v>
       </c>
     </row>
@@ -24373,6 +24075,1036 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FA297E-65B5-044B-81EC-2902810C0B6E}">
+  <dimension ref="A1:AU48"/>
+  <sheetViews>
+    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AU6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C2" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="J2" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="K2" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="M2" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="N2" s="7">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="S2" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="U2" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="V2" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>28.2</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C3" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>62.9</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="N3" s="7">
+        <v>61.7</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="R3" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="S3" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U3" s="7">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="V3" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>29.3</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>21.3</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>15.9</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="M4" s="7">
+        <v>37.6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7">
+        <v>2017</v>
+      </c>
+      <c r="R4" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="S4" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T4" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="U4" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="V4" s="7">
+        <v>22</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7">
+        <v>2017</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7">
+        <v>2017</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>40.1</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7">
+        <v>2017</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J5" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="R5" s="7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="S5" s="7">
+        <v>19.3</v>
+      </c>
+      <c r="T5" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="U5" s="7">
+        <v>47</v>
+      </c>
+      <c r="V5" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>23.2</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>23.2</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>31.8</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>22.2</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7">
+        <v>2015</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>50.6</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="7">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>27.7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>2013</v>
+      </c>
+      <c r="J6" s="7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K6" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3</v>
+      </c>
+      <c r="M6" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7">
+        <v>2013</v>
+      </c>
+      <c r="R6" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="S6" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="T6" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="U6" s="7">
+        <v>42.3</v>
+      </c>
+      <c r="V6" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7">
+        <v>2013</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>27.6</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>38</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7">
+        <v>2013</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>37.1</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>32.1</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7">
+        <v>2013</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>56.8</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A43:C43"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F4800C-3E1F-C34F-9202-41D519439501}">
   <dimension ref="A1:P162"/>
   <sheetViews>
@@ -24392,22 +25124,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -24622,19 +25354,19 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -24831,19 +25563,19 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -25023,20 +25755,20 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -25216,15 +25948,15 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -25388,12 +26120,12 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -25500,12 +26232,12 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
+      <c r="A56" s="27">
         <v>2019</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -25598,12 +26330,12 @@
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="11">
+      <c r="A64" s="27">
         <v>2017</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
@@ -25696,12 +26428,12 @@
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="11">
+      <c r="A72" s="27">
         <v>2015</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -25794,12 +26526,12 @@
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="11">
+      <c r="A80" s="27">
         <v>2013</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
@@ -25886,12 +26618,12 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
@@ -25992,12 +26724,12 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="10">
+      <c r="A98" s="28">
         <v>2019</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -26084,12 +26816,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="10">
+      <c r="A106" s="28">
         <v>2017</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
@@ -26176,12 +26908,12 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="10">
+      <c r="A114" s="28">
         <v>2015</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -26268,12 +27000,12 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="10">
+      <c r="A122" s="28">
         <v>2013</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
@@ -26360,11 +27092,11 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
@@ -26444,11 +27176,11 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="10">
+      <c r="A140" s="28">
         <v>2019</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
@@ -26517,11 +27249,11 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="10">
+      <c r="A148" s="28">
         <v>2017</v>
       </c>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
@@ -26590,11 +27322,11 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="10">
+      <c r="A156" s="28">
         <v>2015</v>
       </c>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
@@ -26664,6 +27396,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A140:C140"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="J19:M19"/>
@@ -26679,14 +27419,6 @@
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A140:C140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">
@@ -26699,7 +27431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1D5D4B-9437-174E-935E-8F14BB0E1799}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26714,7 +27446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393A7E58-B344-5544-87E9-8227E4C77461}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26729,7 +27461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416DE40D-A516-4749-BCB0-07411EE1F4B7}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -26936,12 +27668,12 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -27067,12 +27799,12 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -27189,11 +27921,11 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -27287,7 +28019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99604326-E14A-D84B-B02F-B0B47E4FBF38}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -27298,15 +28030,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -27447,12 +28179,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -27539,12 +28271,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -27631,11 +28363,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -27691,533 +28423,6 @@
       <c r="C32">
         <v>37.4</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:C27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC374D-1D9B-CD41-94CA-A7762B986A85}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="C3" s="7">
-        <v>13.3</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F3" s="7">
-        <v>60.5</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="7">
-        <v>10.6</v>
-      </c>
-      <c r="C4" s="7">
-        <v>18.2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E4" s="7">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="F4" s="7">
-        <v>49.8</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="7">
-        <v>13.9</v>
-      </c>
-      <c r="C5" s="7">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43.7</v>
-      </c>
-      <c r="F5" s="7">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="7">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="C6" s="7">
-        <v>19.3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="E6" s="7">
-        <v>47</v>
-      </c>
-      <c r="F6" s="7">
-        <v>13.9</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="7">
-        <v>21.7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>24.3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="E7" s="7">
-        <v>42.3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="C12" s="7">
-        <v>87.9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="7">
-        <v>6.8</v>
-      </c>
-      <c r="C13" s="7">
-        <v>89.3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C14" s="7">
-        <v>73</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="7">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C15" s="7">
-        <v>71.8</v>
-      </c>
-      <c r="D15" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="7">
-        <v>24.9</v>
-      </c>
-      <c r="C16" s="7">
-        <v>68.5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6.6</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B21" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C21" s="8">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D21" s="8">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="C22" s="8">
-        <v>21.3</v>
-      </c>
-      <c r="D22" s="8">
-        <v>72.5</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="C23" s="8">
-        <v>23.7</v>
-      </c>
-      <c r="D23" s="8">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B24" s="8">
-        <v>8.9</v>
-      </c>
-      <c r="C24" s="8">
-        <v>23.7</v>
-      </c>
-      <c r="D24" s="8">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B25" s="8">
-        <v>9</v>
-      </c>
-      <c r="C25" s="8">
-        <v>25.1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="8">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="C29" s="8">
-        <v>26.9</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B30" s="8">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="C30" s="8">
-        <v>27.9</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B31" s="8">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="C31" s="8">
-        <v>31.9</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B32" s="8">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="C32" s="8">
-        <v>34.4</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -28231,7 +28436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386405C0-D1C4-C949-8B67-4692CBDB08D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC374D-1D9B-CD41-94CA-A7762B986A85}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28241,399 +28446,510 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2021</v>
       </c>
-      <c r="B3" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>49.1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.3</v>
+      <c r="B3" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>2019</v>
       </c>
-      <c r="B4" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="B4" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C6" s="7">
+        <v>19.3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>47</v>
+      </c>
+      <c r="F6" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="E7" s="7">
+        <v>42.3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>87.9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>89.3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>2017</v>
       </c>
-      <c r="B5" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>21.7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44</v>
-      </c>
-      <c r="F5" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B14" s="7">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C14" s="7">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>2015</v>
       </c>
-      <c r="B6" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="B15" s="7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C15" s="7">
+        <v>71.8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>2013</v>
       </c>
-      <c r="B7" s="1">
-        <v>27.6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>27.1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="B16" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="C16" s="7">
+        <v>68.5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>2021</v>
       </c>
-      <c r="B12" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>86.5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="B21" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C21" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D21" s="8">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>2019</v>
       </c>
-      <c r="B13" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C13" s="1">
-        <v>86.7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="B22" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>21.3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>2017</v>
       </c>
-      <c r="B14" s="1">
-        <v>20.7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B23" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="C23" s="8">
+        <v>23.7</v>
+      </c>
+      <c r="D23" s="8">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>2015</v>
       </c>
-      <c r="B15" s="1">
-        <v>25.2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B24" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="C24" s="8">
+        <v>23.7</v>
+      </c>
+      <c r="D24" s="8">
         <v>67.400000000000006</v>
       </c>
-      <c r="D15" s="1">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>2013</v>
       </c>
-      <c r="B16" s="1">
-        <v>29.7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>64</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="B25" s="8">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>2021</v>
       </c>
-      <c r="B21">
-        <v>5.2</v>
-      </c>
-      <c r="C21">
-        <v>14.5</v>
-      </c>
-      <c r="D21">
-        <v>80.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="B29" s="8">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C29" s="8">
+        <v>26.9</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>2019</v>
       </c>
-      <c r="B22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C22">
-        <v>19.8</v>
-      </c>
-      <c r="D22">
-        <v>75.099999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="B30" s="8">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C30" s="8">
+        <v>27.9</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>2017</v>
       </c>
-      <c r="B23">
-        <v>6.9</v>
-      </c>
-      <c r="C23">
-        <v>20.7</v>
-      </c>
-      <c r="D23">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="B31" s="8">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="C31" s="8">
+        <v>31.9</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>2015</v>
       </c>
-      <c r="B24">
-        <v>6.7</v>
-      </c>
-      <c r="C24">
-        <v>21.9</v>
-      </c>
-      <c r="D24">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B25">
-        <v>7.5</v>
-      </c>
-      <c r="C25">
-        <v>22.9</v>
-      </c>
-      <c r="D25">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B29">
-        <v>72.3</v>
-      </c>
-      <c r="C29">
-        <v>27.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B30">
-        <v>73</v>
-      </c>
-      <c r="C30">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B31">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="C31">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B32">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="C32">
-        <v>32.9</v>
-      </c>
+      <c r="B32" s="8">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C32" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
